--- a/biology/Biochimie/Énoyl-coenzyme_A_isomérase/Énoyl-coenzyme_A_isomérase.xlsx
+++ b/biology/Biochimie/Énoyl-coenzyme_A_isomérase/Énoyl-coenzyme_A_isomérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89noyl-coenzyme_A_isom%C3%A9rase</t>
+          <t>Énoyl-coenzyme_A_isomérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Δ3-cis-Δ2-trans-énoyl-CoA isomérase, ou dodécénoyl-CoA isomérase, est une isomérase qui catalyse la réaction :
@@ -488,7 +500,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   (2E)-dodéc-2-énoyl-CoA.
-Cette enzyme assure la conversion d'une double liaison cis ou trans sur l'atome de carbone γ (position 3) en double-liaison trans sur l'atome de carbone β (position 2) d'un acide gras insaturé. Elle intervient dans la β-oxydation des acides gras insaturés portant une double liaison sur un atome de carbone impair[3]. Elle agit en décalant la position de la double liaison de l'intermédiaire acyl-CoA et en convertissant la 3-cis ou trans-énoyl-CoA en 2-trans-énoyl-CoA. Dans la mesure où l'étape clé de la dégradation des acides gras ayant une double liaison sur un atome de carbone pair produit également de la 3-trans-énoyl-CoA chez les mammifères et les levures, l'énoyl-CoA isomérase est indispensable pour dégrader ces acides gras également[4].
+Cette enzyme assure la conversion d'une double liaison cis ou trans sur l'atome de carbone γ (position 3) en double-liaison trans sur l'atome de carbone β (position 2) d'un acide gras insaturé. Elle intervient dans la β-oxydation des acides gras insaturés portant une double liaison sur un atome de carbone impair. Elle agit en décalant la position de la double liaison de l'intermédiaire acyl-CoA et en convertissant la 3-cis ou trans-énoyl-CoA en 2-trans-énoyl-CoA. Dans la mesure où l'étape clé de la dégradation des acides gras ayant une double liaison sur un atome de carbone pair produit également de la 3-trans-énoyl-CoA chez les mammifères et les levures, l'énoyl-CoA isomérase est indispensable pour dégrader ces acides gras également.
 </t>
         </is>
       </c>
